--- a/database layout.xlsx
+++ b/database layout.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>username</t>
   </si>
@@ -184,16 +185,16 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +479,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,33 +501,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="6" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="P1" s="5"/>
@@ -599,10 +600,10 @@
       <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -684,30 +685,30 @@
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="M5" s="1"/>
@@ -727,26 +728,26 @@
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>5</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="1"/>
@@ -766,16 +767,16 @@
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>6</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1"/>
@@ -801,16 +802,16 @@
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1"/>
@@ -836,16 +837,16 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="1"/>
@@ -867,16 +868,16 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="1"/>
@@ -898,7 +899,7 @@
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -925,10 +926,10 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1"/>
@@ -952,10 +953,10 @@
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1"/>
@@ -979,10 +980,10 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
@@ -993,8 +994,8 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
@@ -1136,4 +1137,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>